--- a/Lancelotti2021_JASREP/Dataset-SM2-EKH-phytoliths.xlsx
+++ b/Lancelotti2021_JASREP/Dataset-SM2-EKH-phytoliths.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/papers/AGRIWESTMED/AfrArchBot/JAS-rep-submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/papers/AGRIWESTMED/AfrArchBot/JasRep-Morocco-Phytoliths/first-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C9E07-3BD0-D246-A8F3-4253EC574F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1F4C3-43F9-E44E-A4B0-80F2C9CC2293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15400" xr2:uid="{1B409D85-258B-084C-971E-9E88CE0CBDFC}"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15400" activeTab="1" xr2:uid="{1B409D85-258B-084C-971E-9E88CE0CBDFC}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction" sheetId="1" r:id="rId1"/>
     <sheet name="ID" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>EKH-B-2005</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Unidentified</t>
+  </si>
+  <si>
+    <t>Arecaceae</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -450,11 +453,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -489,6 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -498,29 +522,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ABEB25-2E35-4C42-947C-13D3E3626AA9}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -856,37 +876,37 @@
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1506,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF59B41-9861-1144-8833-CCAF4BB3A665}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1519,57 +1539,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="69">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1625,7 +1645,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1685,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1707,7 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1737,7 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1867,7 +1887,7 @@
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1911,7 +1931,7 @@
       <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +1961,7 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +1983,7 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
@@ -1985,7 +2005,7 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2031,7 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
@@ -2039,7 +2059,7 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +2085,7 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
@@ -2113,7 +2133,7 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
@@ -2139,7 +2159,7 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
@@ -2161,7 +2181,7 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2211,7 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
@@ -2213,7 +2233,7 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="29"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2255,7 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="7" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2277,7 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="8" t="s">
         <v>53</v>
       </c>
@@ -2285,7 +2305,7 @@
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2331,7 +2351,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="7" t="s">
         <v>56</v>
       </c>
@@ -2379,7 +2399,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
@@ -2401,7 +2421,7 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="29"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2423,7 +2443,7 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="7" t="s">
         <v>59</v>
       </c>
@@ -2445,7 +2465,7 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="30"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>60</v>
       </c>
@@ -2476,8 +2496,8 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:18" ht="16" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -2525,7 +2545,7 @@
       <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="32"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="18" t="s">
         <v>63</v>
       </c>
@@ -2549,60 +2569,38 @@
       <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="32"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="18">
-        <v>165</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C38" s="18"/>
       <c r="D38" s="18">
-        <v>22</v>
-      </c>
-      <c r="E38" s="18">
-        <v>78</v>
-      </c>
-      <c r="F38" s="18">
-        <v>29</v>
-      </c>
-      <c r="G38" s="18">
-        <v>3</v>
-      </c>
-      <c r="H38" s="18">
-        <v>14</v>
-      </c>
-      <c r="I38" s="18">
-        <v>8</v>
-      </c>
-      <c r="J38" s="18">
         <v>2</v>
       </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="18">
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="39"/>
+      <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="18">
         <v>5</v>
       </c>
-      <c r="O38" s="18">
-        <v>5</v>
-      </c>
-      <c r="P38" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="32"/>
-      <c r="B39" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18">
-        <v>2</v>
-      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -2619,13 +2617,11 @@
       <c r="R39" s="19"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="32"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="18">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2643,15 +2639,17 @@
       <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="32"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18">
+        <v>2</v>
+      </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -2665,20 +2663,20 @@
       <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="32"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="18">
-        <v>2</v>
-      </c>
+      <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
@@ -2689,129 +2687,147 @@
       <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="32"/>
-      <c r="B43" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18">
+      <c r="A43" s="39"/>
+      <c r="B43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="20">
+        <v>4</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5</v>
+      </c>
+      <c r="E43" s="20">
+        <v>4</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20">
+        <v>5</v>
+      </c>
+      <c r="J43" s="20">
         <v>1</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="19"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="21"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="33"/>
-      <c r="B44" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="20">
-        <v>4</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="A44" s="34"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="35">
+        <v>165</v>
+      </c>
+      <c r="D45" s="35">
+        <v>22</v>
+      </c>
+      <c r="E45" s="35">
+        <v>78</v>
+      </c>
+      <c r="F45" s="35">
+        <v>29</v>
+      </c>
+      <c r="G45" s="35">
+        <v>3</v>
+      </c>
+      <c r="H45" s="35">
+        <v>14</v>
+      </c>
+      <c r="I45" s="35">
+        <v>8</v>
+      </c>
+      <c r="J45" s="35">
+        <v>2</v>
+      </c>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35">
         <v>5</v>
       </c>
-      <c r="E44" s="20">
-        <v>4</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20">
+      <c r="O45" s="35">
         <v>5</v>
       </c>
-      <c r="J44" s="20">
+      <c r="P45" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="33"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9">
         <v>1</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="35"/>
-      <c r="B47" s="7" t="s">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="1:18" ht="16" customHeight="1">
+      <c r="A48" s="38"/>
+      <c r="B48" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
-        <v>6</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="35"/>
-      <c r="B48" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7">
-        <v>8</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -2820,22 +2836,24 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="7">
-        <v>1</v>
-      </c>
+      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="35"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="7">
+        <v>8</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -2844,14 +2862,16 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
+      <c r="P49" s="7">
+        <v>1</v>
+      </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="35"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2871,14 +2891,12 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2895,266 +2913,295 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="36"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="38"/>
+      <c r="B53" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
         <v>3</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="6"/>
+      <c r="B55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23">
         <v>4</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23">
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23">
         <v>1</v>
       </c>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23">
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23">
         <v>1</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O55" s="23">
         <v>2</v>
       </c>
-      <c r="P54" s="23">
+      <c r="P55" s="23">
         <v>1</v>
       </c>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="24"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="24"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="13"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="B57" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="9">
-        <f t="shared" ref="C56:R56" si="0">C2+C3+C4+C5+C6+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25+C26+C29+C30+C31+C31+C32+C33+C34+C36+C37+C38+C39+C40+C41+C42+C44+C52+C43+C27</f>
+      <c r="C57" s="9">
+        <f>C2+C3+C4+C5+C6+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25+C26+C29+C30+C31+C31+C32+C33+C34+C36+C37+C45+C38+C39+C40+C41+C43+C53+C42+C27</f>
         <v>351</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
+        <f>D2+D3+D4+D5+D6+D8+D9+D10+D11+D13+D14+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D29+D30+D31+D31+D32+D33+D34+D36+D37+D45+D38+D39+D40+D41+D43+D53+D42+D27</f>
+        <v>244</v>
+      </c>
+      <c r="E57" s="9">
+        <f>E2+E3+E4+E5+E6+E8+E9+E10+E11+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25+E26+E29+E30+E31+E31+E32+E33+E34+E36+E37+E45+E38+E39+E40+E41+E43+E53+E42+E27</f>
+        <v>319</v>
+      </c>
+      <c r="F57" s="9">
+        <f>F2+F3+F4+F5+F6+F8+F9+F10+F11+F13+F14+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F26+F29+F30+F31+F31+F32+F33+F34+F36+F37+F45+F38+F39+F40+F41+F43+F53+F42+F27</f>
+        <v>261</v>
+      </c>
+      <c r="G57" s="9">
+        <f>G2+G3+G4+G5+G6+G8+G9+G10+G11+G13+G14+G15+G16+G17+G18+G19+G20+G21+G22+G23+G24+G25+G26+G29+G30+G31+G31+G32+G33+G34+G36+G37+G45+G38+G39+G40+G41+G43+G53+G42+G27</f>
+        <v>157</v>
+      </c>
+      <c r="H57" s="9">
+        <f>H2+H3+H4+H5+H6+H8+H9+H10+H11+H13+H14+H15+H16+H17+H18+H19+H20+H21+H22+H23+H24+H25+H26+H29+H30+H31+H31+H32+H33+H34+H36+H37+H45+H38+H39+H40+H41+H43+H53+H42+H27</f>
+        <v>154</v>
+      </c>
+      <c r="I57" s="9">
+        <f>I2+I3+I4+I5+I6+I8+I9+I10+I11+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I29+I30+I31+I31+I32+I33+I34+I36+I37+I45+I38+I39+I40+I41+I43+I53+I42+I27</f>
+        <v>71</v>
+      </c>
+      <c r="J57" s="9">
+        <f>J2+J3+J4+J5+J6+J8+J9+J10+J11+J13+J14+J15+J16+J17+J18+J19+J20+J21+J22+J23+J24+J25+J26+J29+J30+J31+J31+J32+J33+J34+J36+J37+J45+J38+J39+J40+J41+J43+J53+J42+J27</f>
+        <v>46</v>
+      </c>
+      <c r="K57" s="9">
+        <f>K2+K3+K4+K5+K6+K8+K9+K10+K11+K13+K14+K15+K16+K17+K18+K19+K20+K21+K22+K23+K24+K25+K26+K29+K30+K31+K31+K32+K33+K34+K36+K37+K45+K38+K39+K40+K41+K43+K53+K42+K27</f>
+        <v>2</v>
+      </c>
+      <c r="L57" s="9">
+        <f>L2+L3+L4+L5+L6+L8+L9+L10+L11+L13+L14+L15+L16+L17+L18+L19+L20+L21+L22+L23+L24+L25+L26+L29+L30+L31+L31+L32+L33+L34+L36+L37+L45+L38+L39+L40+L41+L43+L53+L42+L27</f>
+        <v>6</v>
+      </c>
+      <c r="M57" s="9">
+        <f>M2+M3+M4+M5+M6+M8+M9+M10+M11+M13+M14+M15+M16+M17+M18+M19+M20+M21+M22+M23+M24+M25+M26+M29+M30+M31+M31+M32+M33+M34+M36+M37+M45+M38+M39+M40+M41+M43+M53+M42+M27</f>
+        <v>13</v>
+      </c>
+      <c r="N57" s="9">
+        <f>N2+N3+N4+N5+N6+N8+N9+N10+N11+N13+N14+N15+N16+N17+N18+N19+N20+N21+N22+N23+N24+N25+N26+N29+N30+N31+N31+N32+N33+N34+N36+N37+N45+N38+N39+N40+N41+N43+N53+N42+N27</f>
+        <v>26</v>
+      </c>
+      <c r="O57" s="9">
+        <f>O2+O3+O4+O5+O6+O8+O9+O10+O11+O13+O14+O15+O16+O17+O18+O19+O20+O21+O22+O23+O24+O25+O26+O29+O30+O31+O31+O32+O33+O34+O36+O37+O45+O38+O39+O40+O41+O43+O53+O42+O27</f>
+        <v>28</v>
+      </c>
+      <c r="P57" s="9">
+        <f>P2+P3+P4+P5+P6+P8+P9+P10+P11+P13+P14+P15+P16+P17+P18+P19+P20+P21+P22+P23+P24+P25+P26+P29+P30+P31+P31+P32+P33+P34+P36+P37+P45+P38+P39+P40+P41+P43+P53+P42+P27</f>
+        <v>19</v>
+      </c>
+      <c r="Q57" s="9">
+        <f>Q2+Q3+Q4+Q5+Q6+Q8+Q9+Q10+Q11+Q13+Q14+Q15+Q16+Q17+Q18+Q19+Q20+Q21+Q22+Q23+Q24+Q25+Q26+Q29+Q30+Q31+Q31+Q32+Q33+Q34+Q36+Q37+Q45+Q38+Q39+Q40+Q41+Q43+Q53+Q42+Q27</f>
+        <v>8</v>
+      </c>
+      <c r="R57" s="10">
+        <f>R2+R3+R4+R5+R6+R8+R9+R10+R11+R13+R14+R15+R16+R17+R18+R19+R20+R21+R22+R23+R24+R25+R26+R29+R30+R31+R31+R32+R33+R34+R36+R37+R45+R38+R39+R40+R41+R43+R53+R42+R27</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="7"/>
+      <c r="B58" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="7">
+        <f t="shared" ref="C58:R58" si="0">C57+C55</f>
+        <v>351</v>
+      </c>
+      <c r="D58" s="7">
         <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-      <c r="E56" s="9">
+        <v>248</v>
+      </c>
+      <c r="E58" s="7">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F58" s="7">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H58" s="7">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I58" s="7">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="J56" s="9">
+        <v>72</v>
+      </c>
+      <c r="J58" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K58" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L58" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M58" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N58" s="7">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="O56" s="9">
+        <v>27</v>
+      </c>
+      <c r="O58" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="P56" s="9">
+        <v>30</v>
+      </c>
+      <c r="P58" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="Q56" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R56" s="10">
+      <c r="R58" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="14"/>
-      <c r="B57" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="7">
-        <f t="shared" ref="C57:R57" si="1">C56+C54</f>
-        <v>351</v>
-      </c>
-      <c r="D57" s="7">
-        <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-      <c r="E57" s="7">
-        <f t="shared" si="1"/>
-        <v>319</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="G57" s="7">
-        <f t="shared" si="1"/>
-        <v>157</v>
-      </c>
-      <c r="H57" s="7">
-        <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="J57" s="7">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K57" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L57" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M57" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="N57" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="O57" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="P57" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q57" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="R57" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="15"/>
-      <c r="B58" s="27" t="s">
+    <row r="59" spans="1:18">
+      <c r="A59" s="8"/>
+      <c r="B59" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>300</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>300</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>120</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>60</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>300</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H59" s="8">
         <v>300</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I59" s="8">
         <v>300</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J59" s="8">
         <v>300</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K59" s="8">
         <v>300</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L59" s="8">
         <v>300</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M59" s="8">
         <v>300</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N59" s="8">
         <v>300</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O59" s="8">
         <v>300</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P59" s="8">
         <v>300</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q59" s="8">
         <v>300</v>
       </c>
-      <c r="R58" s="12">
+      <c r="R59" s="12">
         <v>300</v>
       </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A47:A53"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A13:A27"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
